--- a/testcases/timeseries/EVDay01_base.xlsx
+++ b/testcases/timeseries/EVDay01_base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CalumEdmunds\Desktop\oatsEV_V2G\testcases\timeseries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CalumEdmunds\Desktop\agileFlex\testcases\timeseries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9ED0F6-1A59-421B-89FF-3AB0CDB40D67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B74066-E478-4F08-9E2B-A4462F283547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="2610" windowWidth="19440" windowHeight="15000" tabRatio="691" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="2610" windowWidth="19440" windowHeight="15000" tabRatio="691" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" r:id="rId1"/>
@@ -2091,8 +2091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G289"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2119,9 +2119,7 @@
       <c r="B2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="4">
-        <v>6.3520000000000007E-2</v>
-      </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -2134,9 +2132,7 @@
       <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="4">
-        <v>6.3520000000000007E-2</v>
-      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -2149,9 +2145,7 @@
       <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="4">
-        <v>6.3520000000000007E-2</v>
-      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -2164,9 +2158,7 @@
       <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="4">
-        <v>6.2579999999999997E-2</v>
-      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -2179,9 +2171,7 @@
       <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="4">
-        <v>6.2579999999999997E-2</v>
-      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -2194,9 +2184,7 @@
       <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="4">
-        <v>6.2579999999999997E-2</v>
-      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -2209,9 +2197,7 @@
       <c r="B8" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="4">
-        <v>6.0429999999999998E-2</v>
-      </c>
+      <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -2224,9 +2210,7 @@
       <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="4">
-        <v>6.0429999999999998E-2</v>
-      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -2239,9 +2223,7 @@
       <c r="B10" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="4">
-        <v>6.0429999999999998E-2</v>
-      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -2254,9 +2236,7 @@
       <c r="B11" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="4">
-        <v>5.953E-2</v>
-      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -2269,9 +2249,7 @@
       <c r="B12" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="4">
-        <v>5.953E-2</v>
-      </c>
+      <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -2284,9 +2262,7 @@
       <c r="B13" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="4">
-        <v>5.953E-2</v>
-      </c>
+      <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -2299,9 +2275,7 @@
       <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="4">
-        <v>5.9139999999999998E-2</v>
-      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2314,9 +2288,7 @@
       <c r="B15" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="4">
-        <v>5.9139999999999998E-2</v>
-      </c>
+      <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2329,9 +2301,7 @@
       <c r="B16" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="4">
-        <v>5.9139999999999998E-2</v>
-      </c>
+      <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2344,9 +2314,7 @@
       <c r="B17" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="4">
-        <v>5.8029999999999998E-2</v>
-      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -2359,9 +2327,7 @@
       <c r="B18" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="4">
-        <v>5.8029999999999998E-2</v>
-      </c>
+      <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -2374,9 +2340,7 @@
       <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="4">
-        <v>5.8029999999999998E-2</v>
-      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2389,9 +2353,7 @@
       <c r="B20" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="4">
-        <v>6.4259999999999998E-2</v>
-      </c>
+      <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -2404,9 +2366,7 @@
       <c r="B21" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="4">
-        <v>6.4259999999999998E-2</v>
-      </c>
+      <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -2419,9 +2379,7 @@
       <c r="B22" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="4">
-        <v>6.4259999999999998E-2</v>
-      </c>
+      <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -2434,9 +2392,7 @@
       <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="4">
-        <v>6.4430000000000001E-2</v>
-      </c>
+      <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2449,9 +2405,7 @@
       <c r="B24" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="4">
-        <v>6.4430000000000001E-2</v>
-      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2464,9 +2418,7 @@
       <c r="B25" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="4">
-        <v>6.4430000000000001E-2</v>
-      </c>
+      <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -2479,9 +2431,7 @@
       <c r="B26" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="4">
-        <v>0.14943000000000001</v>
-      </c>
+      <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -2494,9 +2444,7 @@
       <c r="B27" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="4">
-        <v>0.14943000000000001</v>
-      </c>
+      <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -2509,9 +2457,7 @@
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="4">
-        <v>0.14943000000000001</v>
-      </c>
+      <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -2524,9 +2470,7 @@
       <c r="B29" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="4">
-        <v>0.16320000000000001</v>
-      </c>
+      <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -2539,9 +2483,7 @@
       <c r="B30" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="4">
-        <v>0.16320000000000001</v>
-      </c>
+      <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -2554,9 +2496,7 @@
       <c r="B31" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="4">
-        <v>0.16320000000000001</v>
-      </c>
+      <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -2569,9 +2509,7 @@
       <c r="B32" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="4">
-        <v>0.17509</v>
-      </c>
+      <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -2584,9 +2522,7 @@
       <c r="B33" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="4">
-        <v>0.17509</v>
-      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -2599,9 +2535,7 @@
       <c r="B34" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="4">
-        <v>0.17509</v>
-      </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -2614,9 +2548,7 @@
       <c r="B35" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="4">
-        <v>0.17499000000000001</v>
-      </c>
+      <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -2629,9 +2561,7 @@
       <c r="B36" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="4">
-        <v>0.17499000000000001</v>
-      </c>
+      <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -2644,9 +2574,7 @@
       <c r="B37" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="4">
-        <v>0.17499000000000001</v>
-      </c>
+      <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -2659,9 +2587,7 @@
       <c r="B38" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="4">
-        <v>0.16772000000000001</v>
-      </c>
+      <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -2674,9 +2600,7 @@
       <c r="B39" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="4">
-        <v>0.16772000000000001</v>
-      </c>
+      <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -2689,9 +2613,7 @@
       <c r="B40" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="4">
-        <v>0.16772000000000001</v>
-      </c>
+      <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -2704,9 +2626,7 @@
       <c r="B41" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="4">
-        <v>0.16381999999999999</v>
-      </c>
+      <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -2719,9 +2639,7 @@
       <c r="B42" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="4">
-        <v>0.16381999999999999</v>
-      </c>
+      <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -2734,9 +2652,7 @@
       <c r="B43" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="4">
-        <v>0.16381999999999999</v>
-      </c>
+      <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -2749,9 +2665,7 @@
       <c r="B44" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="4">
-        <v>6.4299999999999996E-2</v>
-      </c>
+      <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -2764,9 +2678,7 @@
       <c r="B45" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="4">
-        <v>6.4299999999999996E-2</v>
-      </c>
+      <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -2779,9 +2691,7 @@
       <c r="B46" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="4">
-        <v>6.4299999999999996E-2</v>
-      </c>
+      <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -2794,9 +2704,7 @@
       <c r="B47" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="4">
-        <v>0.18739</v>
-      </c>
+      <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -2809,9 +2717,7 @@
       <c r="B48" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="4">
-        <v>0.18739</v>
-      </c>
+      <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -2824,9 +2730,7 @@
       <c r="B49" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="4">
-        <v>0.18739</v>
-      </c>
+      <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -2839,9 +2743,7 @@
       <c r="B50" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="4">
-        <v>6.1890000000000001E-2</v>
-      </c>
+      <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -2854,9 +2756,7 @@
       <c r="B51" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="4">
-        <v>6.1890000000000001E-2</v>
-      </c>
+      <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -2869,9 +2769,7 @@
       <c r="B52" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="4">
-        <v>6.1890000000000001E-2</v>
-      </c>
+      <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -2884,9 +2782,7 @@
       <c r="B53" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="4">
-        <v>6.2219999999999998E-2</v>
-      </c>
+      <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -2899,9 +2795,7 @@
       <c r="B54" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="4">
-        <v>6.2219999999999998E-2</v>
-      </c>
+      <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -2914,9 +2808,7 @@
       <c r="B55" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="4">
-        <v>6.2219999999999998E-2</v>
-      </c>
+      <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -2929,9 +2821,7 @@
       <c r="B56" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="4">
-        <v>6.1920000000000003E-2</v>
-      </c>
+      <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -2944,9 +2834,7 @@
       <c r="B57" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="4">
-        <v>6.1920000000000003E-2</v>
-      </c>
+      <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -2959,9 +2847,7 @@
       <c r="B58" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="4">
-        <v>6.1920000000000003E-2</v>
-      </c>
+      <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -2974,9 +2860,7 @@
       <c r="B59" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="4">
-        <v>6.028E-2</v>
-      </c>
+      <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -2989,9 +2873,7 @@
       <c r="B60" t="s">
         <v>53</v>
       </c>
-      <c r="C60" s="4">
-        <v>6.028E-2</v>
-      </c>
+      <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -3004,9 +2886,7 @@
       <c r="B61" t="s">
         <v>53</v>
       </c>
-      <c r="C61" s="4">
-        <v>6.028E-2</v>
-      </c>
+      <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -3019,9 +2899,7 @@
       <c r="B62" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="4">
-        <v>5.8340000000000003E-2</v>
-      </c>
+      <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -3034,9 +2912,7 @@
       <c r="B63" t="s">
         <v>53</v>
       </c>
-      <c r="C63" s="4">
-        <v>5.8340000000000003E-2</v>
-      </c>
+      <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -3049,9 +2925,7 @@
       <c r="B64" t="s">
         <v>53</v>
       </c>
-      <c r="C64" s="4">
-        <v>5.8340000000000003E-2</v>
-      </c>
+      <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -3064,9 +2938,7 @@
       <c r="B65" t="s">
         <v>53</v>
       </c>
-      <c r="C65" s="4">
-        <v>5.8779999999999999E-2</v>
-      </c>
+      <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -3079,9 +2951,7 @@
       <c r="B66" t="s">
         <v>53</v>
       </c>
-      <c r="C66" s="4">
-        <v>5.8779999999999999E-2</v>
-      </c>
+      <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
@@ -3094,9 +2964,7 @@
       <c r="B67" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="4">
-        <v>5.8779999999999999E-2</v>
-      </c>
+      <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -3109,9 +2977,7 @@
       <c r="B68" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="4">
-        <v>6.1340000000000013E-2</v>
-      </c>
+      <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -3124,9 +2990,7 @@
       <c r="B69" t="s">
         <v>53</v>
       </c>
-      <c r="C69" s="4">
-        <v>6.1340000000000013E-2</v>
-      </c>
+      <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -3139,9 +3003,7 @@
       <c r="B70" t="s">
         <v>53</v>
       </c>
-      <c r="C70" s="4">
-        <v>6.1340000000000013E-2</v>
-      </c>
+      <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
@@ -3154,9 +3016,7 @@
       <c r="B71" t="s">
         <v>53</v>
       </c>
-      <c r="C71" s="4">
-        <v>6.2E-2</v>
-      </c>
+      <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -3169,9 +3029,7 @@
       <c r="B72" t="s">
         <v>53</v>
       </c>
-      <c r="C72" s="4">
-        <v>6.2E-2</v>
-      </c>
+      <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -3184,9 +3042,7 @@
       <c r="B73" t="s">
         <v>53</v>
       </c>
-      <c r="C73" s="4">
-        <v>6.2E-2</v>
-      </c>
+      <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -3199,9 +3055,7 @@
       <c r="B74" t="s">
         <v>53</v>
       </c>
-      <c r="C74" s="4">
-        <v>5.0819999999999997E-2</v>
-      </c>
+      <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -3214,9 +3068,7 @@
       <c r="B75" t="s">
         <v>53</v>
       </c>
-      <c r="C75" s="4">
-        <v>5.0819999999999997E-2</v>
-      </c>
+      <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
@@ -3229,9 +3081,7 @@
       <c r="B76" t="s">
         <v>53</v>
       </c>
-      <c r="C76" s="4">
-        <v>5.0819999999999997E-2</v>
-      </c>
+      <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -3244,9 +3094,7 @@
       <c r="B77" t="s">
         <v>53</v>
       </c>
-      <c r="C77" s="4">
-        <v>5.0209999999999998E-2</v>
-      </c>
+      <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -3259,9 +3107,7 @@
       <c r="B78" t="s">
         <v>53</v>
       </c>
-      <c r="C78" s="4">
-        <v>5.0209999999999998E-2</v>
-      </c>
+      <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -3274,9 +3120,7 @@
       <c r="B79" t="s">
         <v>53</v>
       </c>
-      <c r="C79" s="4">
-        <v>5.0209999999999998E-2</v>
-      </c>
+      <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -3289,9 +3133,7 @@
       <c r="B80" t="s">
         <v>53</v>
       </c>
-      <c r="C80" s="4">
-        <v>5.0979999999999998E-2</v>
-      </c>
+      <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -3304,9 +3146,7 @@
       <c r="B81" t="s">
         <v>53</v>
       </c>
-      <c r="C81" s="4">
-        <v>5.0979999999999998E-2</v>
-      </c>
+      <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -3319,9 +3159,7 @@
       <c r="B82" t="s">
         <v>53</v>
       </c>
-      <c r="C82" s="4">
-        <v>5.0979999999999998E-2</v>
-      </c>
+      <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -3334,9 +3172,7 @@
       <c r="B83" t="s">
         <v>53</v>
       </c>
-      <c r="C83" s="4">
-        <v>4.8460000000000003E-2</v>
-      </c>
+      <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -3349,9 +3185,7 @@
       <c r="B84" t="s">
         <v>53</v>
       </c>
-      <c r="C84" s="4">
-        <v>4.8460000000000003E-2</v>
-      </c>
+      <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -3364,9 +3198,7 @@
       <c r="B85" t="s">
         <v>53</v>
       </c>
-      <c r="C85" s="4">
-        <v>4.8460000000000003E-2</v>
-      </c>
+      <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -3379,9 +3211,7 @@
       <c r="B86" t="s">
         <v>53</v>
       </c>
-      <c r="C86" s="4">
-        <v>4.8340000000000001E-2</v>
-      </c>
+      <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -3394,9 +3224,7 @@
       <c r="B87" t="s">
         <v>53</v>
       </c>
-      <c r="C87" s="4">
-        <v>4.8340000000000001E-2</v>
-      </c>
+      <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -3409,9 +3237,7 @@
       <c r="B88" t="s">
         <v>53</v>
       </c>
-      <c r="C88" s="4">
-        <v>4.8340000000000001E-2</v>
-      </c>
+      <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
@@ -3424,9 +3250,7 @@
       <c r="B89" t="s">
         <v>53</v>
       </c>
-      <c r="C89" s="4">
-        <v>4.8240000000000012E-2</v>
-      </c>
+      <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -3439,9 +3263,7 @@
       <c r="B90" t="s">
         <v>53</v>
       </c>
-      <c r="C90" s="4">
-        <v>4.8240000000000012E-2</v>
-      </c>
+      <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
@@ -3454,9 +3276,7 @@
       <c r="B91" t="s">
         <v>53</v>
       </c>
-      <c r="C91" s="4">
-        <v>4.8240000000000012E-2</v>
-      </c>
+      <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -3469,9 +3289,7 @@
       <c r="B92" t="s">
         <v>53</v>
       </c>
-      <c r="C92" s="4">
-        <v>4.4159999999999998E-2</v>
-      </c>
+      <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -3484,9 +3302,7 @@
       <c r="B93" t="s">
         <v>53</v>
       </c>
-      <c r="C93" s="4">
-        <v>4.4159999999999998E-2</v>
-      </c>
+      <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -3499,9 +3315,7 @@
       <c r="B94" t="s">
         <v>53</v>
       </c>
-      <c r="C94" s="4">
-        <v>4.4159999999999998E-2</v>
-      </c>
+      <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
@@ -3514,9 +3328,7 @@
       <c r="B95" t="s">
         <v>53</v>
       </c>
-      <c r="C95" s="4">
-        <v>4.3830000000000001E-2</v>
-      </c>
+      <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
@@ -3529,9 +3341,7 @@
       <c r="B96" t="s">
         <v>53</v>
       </c>
-      <c r="C96" s="4">
-        <v>4.3830000000000001E-2</v>
-      </c>
+      <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -3544,9 +3354,7 @@
       <c r="B97" t="s">
         <v>53</v>
       </c>
-      <c r="C97" s="4">
-        <v>4.3830000000000001E-2</v>
-      </c>
+      <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -3559,9 +3367,7 @@
       <c r="B98" t="s">
         <v>53</v>
       </c>
-      <c r="C98" s="4">
-        <v>4.2299999999999997E-2</v>
-      </c>
+      <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -3574,9 +3380,7 @@
       <c r="B99" t="s">
         <v>53</v>
       </c>
-      <c r="C99" s="4">
-        <v>4.2299999999999997E-2</v>
-      </c>
+      <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -3589,9 +3393,7 @@
       <c r="B100" t="s">
         <v>53</v>
       </c>
-      <c r="C100" s="4">
-        <v>4.2299999999999997E-2</v>
-      </c>
+      <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -3604,9 +3406,7 @@
       <c r="B101" t="s">
         <v>53</v>
       </c>
-      <c r="C101" s="4">
-        <v>3.8969999999999998E-2</v>
-      </c>
+      <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -3619,9 +3419,7 @@
       <c r="B102" t="s">
         <v>53</v>
       </c>
-      <c r="C102" s="4">
-        <v>3.8969999999999998E-2</v>
-      </c>
+      <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -3634,9 +3432,7 @@
       <c r="B103" t="s">
         <v>53</v>
       </c>
-      <c r="C103" s="4">
-        <v>3.8969999999999998E-2</v>
-      </c>
+      <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -3649,9 +3445,7 @@
       <c r="B104" t="s">
         <v>53</v>
       </c>
-      <c r="C104" s="4">
-        <v>3.6470000000000002E-2</v>
-      </c>
+      <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -3664,9 +3458,7 @@
       <c r="B105" t="s">
         <v>53</v>
       </c>
-      <c r="C105" s="4">
-        <v>3.6470000000000002E-2</v>
-      </c>
+      <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -3679,9 +3471,7 @@
       <c r="B106" t="s">
         <v>53</v>
       </c>
-      <c r="C106" s="4">
-        <v>3.6470000000000002E-2</v>
-      </c>
+      <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -3694,9 +3484,7 @@
       <c r="B107" t="s">
         <v>53</v>
       </c>
-      <c r="C107" s="4">
-        <v>3.9100000000000003E-2</v>
-      </c>
+      <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -3709,9 +3497,7 @@
       <c r="B108" t="s">
         <v>53</v>
       </c>
-      <c r="C108" s="4">
-        <v>3.9100000000000003E-2</v>
-      </c>
+      <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -3724,9 +3510,7 @@
       <c r="B109" t="s">
         <v>53</v>
       </c>
-      <c r="C109" s="4">
-        <v>3.9100000000000003E-2</v>
-      </c>
+      <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -3739,9 +3523,7 @@
       <c r="B110" t="s">
         <v>53</v>
       </c>
-      <c r="C110" s="4">
-        <v>4.129E-2</v>
-      </c>
+      <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -3754,9 +3536,7 @@
       <c r="B111" t="s">
         <v>53</v>
       </c>
-      <c r="C111" s="4">
-        <v>4.129E-2</v>
-      </c>
+      <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -3769,9 +3549,7 @@
       <c r="B112" t="s">
         <v>53</v>
       </c>
-      <c r="C112" s="4">
-        <v>4.129E-2</v>
-      </c>
+      <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -3784,9 +3562,7 @@
       <c r="B113" t="s">
         <v>53</v>
       </c>
-      <c r="C113" s="4">
-        <v>4.0409999999999988E-2</v>
-      </c>
+      <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -3799,9 +3575,7 @@
       <c r="B114" t="s">
         <v>53</v>
       </c>
-      <c r="C114" s="4">
-        <v>4.0409999999999988E-2</v>
-      </c>
+      <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -3814,9 +3588,7 @@
       <c r="B115" t="s">
         <v>53</v>
       </c>
-      <c r="C115" s="4">
-        <v>4.0409999999999988E-2</v>
-      </c>
+      <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -3829,9 +3601,7 @@
       <c r="B116" t="s">
         <v>53</v>
       </c>
-      <c r="C116" s="4">
-        <v>0.1668</v>
-      </c>
+      <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -3844,9 +3614,7 @@
       <c r="B117" t="s">
         <v>53</v>
       </c>
-      <c r="C117" s="4">
-        <v>0.1668</v>
-      </c>
+      <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -3859,9 +3627,7 @@
       <c r="B118" t="s">
         <v>53</v>
       </c>
-      <c r="C118" s="4">
-        <v>0.1668</v>
-      </c>
+      <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -3874,9 +3640,7 @@
       <c r="B119" t="s">
         <v>53</v>
       </c>
-      <c r="C119" s="4">
-        <v>4.2130000000000001E-2</v>
-      </c>
+      <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -3889,9 +3653,7 @@
       <c r="B120" t="s">
         <v>53</v>
       </c>
-      <c r="C120" s="4">
-        <v>4.2130000000000001E-2</v>
-      </c>
+      <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -3904,9 +3666,7 @@
       <c r="B121" t="s">
         <v>53</v>
       </c>
-      <c r="C121" s="4">
-        <v>4.2130000000000001E-2</v>
-      </c>
+      <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -3919,9 +3679,7 @@
       <c r="B122" t="s">
         <v>53</v>
       </c>
-      <c r="C122" s="4">
-        <v>4.1950000000000001E-2</v>
-      </c>
+      <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -3934,9 +3692,7 @@
       <c r="B123" t="s">
         <v>53</v>
       </c>
-      <c r="C123" s="4">
-        <v>4.1950000000000001E-2</v>
-      </c>
+      <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -3949,9 +3705,7 @@
       <c r="B124" t="s">
         <v>53</v>
       </c>
-      <c r="C124" s="4">
-        <v>4.1950000000000001E-2</v>
-      </c>
+      <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -3964,9 +3718,7 @@
       <c r="B125" t="s">
         <v>53</v>
       </c>
-      <c r="C125" s="4">
-        <v>4.231E-2</v>
-      </c>
+      <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -3979,9 +3731,7 @@
       <c r="B126" t="s">
         <v>53</v>
       </c>
-      <c r="C126" s="4">
-        <v>4.231E-2</v>
-      </c>
+      <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
@@ -3994,9 +3744,7 @@
       <c r="B127" t="s">
         <v>53</v>
       </c>
-      <c r="C127" s="4">
-        <v>4.231E-2</v>
-      </c>
+      <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
@@ -4009,9 +3757,7 @@
       <c r="B128" t="s">
         <v>53</v>
       </c>
-      <c r="C128" s="4">
-        <v>5.849E-2</v>
-      </c>
+      <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
@@ -4024,9 +3770,7 @@
       <c r="B129" t="s">
         <v>53</v>
       </c>
-      <c r="C129" s="4">
-        <v>5.849E-2</v>
-      </c>
+      <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
@@ -4039,9 +3783,7 @@
       <c r="B130" t="s">
         <v>53</v>
       </c>
-      <c r="C130" s="4">
-        <v>5.849E-2</v>
-      </c>
+      <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
@@ -4054,9 +3796,7 @@
       <c r="B131" t="s">
         <v>53</v>
       </c>
-      <c r="C131" s="4">
-        <v>5.7330000000000013E-2</v>
-      </c>
+      <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
@@ -4069,9 +3809,7 @@
       <c r="B132" t="s">
         <v>53</v>
       </c>
-      <c r="C132" s="4">
-        <v>5.7330000000000013E-2</v>
-      </c>
+      <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
@@ -4084,9 +3822,7 @@
       <c r="B133" t="s">
         <v>53</v>
       </c>
-      <c r="C133" s="4">
-        <v>5.7330000000000013E-2</v>
-      </c>
+      <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
@@ -4099,9 +3835,7 @@
       <c r="B134" t="s">
         <v>53</v>
       </c>
-      <c r="C134" s="4">
-        <v>5.9110000000000003E-2</v>
-      </c>
+      <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
@@ -4114,9 +3848,7 @@
       <c r="B135" t="s">
         <v>53</v>
       </c>
-      <c r="C135" s="4">
-        <v>5.9110000000000003E-2</v>
-      </c>
+      <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -4129,9 +3861,7 @@
       <c r="B136" t="s">
         <v>53</v>
       </c>
-      <c r="C136" s="4">
-        <v>5.9110000000000003E-2</v>
-      </c>
+      <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
@@ -4144,9 +3874,7 @@
       <c r="B137" t="s">
         <v>53</v>
       </c>
-      <c r="C137" s="4">
-        <v>5.9290000000000002E-2</v>
-      </c>
+      <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
@@ -4159,9 +3887,7 @@
       <c r="B138" t="s">
         <v>53</v>
       </c>
-      <c r="C138" s="4">
-        <v>5.9290000000000002E-2</v>
-      </c>
+      <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -4174,9 +3900,7 @@
       <c r="B139" t="s">
         <v>53</v>
       </c>
-      <c r="C139" s="4">
-        <v>5.9290000000000002E-2</v>
-      </c>
+      <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
@@ -4189,9 +3913,7 @@
       <c r="B140" t="s">
         <v>53</v>
       </c>
-      <c r="C140" s="4">
-        <v>6.7670000000000008E-2</v>
-      </c>
+      <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
@@ -4204,9 +3926,7 @@
       <c r="B141" t="s">
         <v>53</v>
       </c>
-      <c r="C141" s="4">
-        <v>6.7670000000000008E-2</v>
-      </c>
+      <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -4219,9 +3939,7 @@
       <c r="B142" t="s">
         <v>53</v>
       </c>
-      <c r="C142" s="4">
-        <v>6.7670000000000008E-2</v>
-      </c>
+      <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
@@ -4234,9 +3952,7 @@
       <c r="B143" t="s">
         <v>53</v>
       </c>
-      <c r="C143" s="4">
-        <v>6.7130000000000009E-2</v>
-      </c>
+      <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
@@ -4249,9 +3965,7 @@
       <c r="B144" t="s">
         <v>53</v>
       </c>
-      <c r="C144" s="4">
-        <v>6.7130000000000009E-2</v>
-      </c>
+      <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
@@ -4264,9 +3978,7 @@
       <c r="B145" t="s">
         <v>53</v>
       </c>
-      <c r="C145" s="4">
-        <v>6.7130000000000009E-2</v>
-      </c>
+      <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
@@ -4714,7 +4426,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4747,10 +4459,10 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>3.5958440865845769</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.1818967959617579</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -4925,7 +4637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
